--- a/Testdata/Non_Oncology/DataFiles/LiveSLRPage/NonOnco_SLR_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/LiveSLRPage/NonOnco_SLR_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\LiveSLRPage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9569CD-1015-4179-B3B0-D22E22C2A1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDF8933-CDEF-4147-9721-F378574A51CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{EBA6B7B5-4164-47B4-905D-E5F060CAEA54}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>LIVEHTA Automation - Test_NonOncology_Automation_1_radio_button</t>
+  </si>
+  <si>
+    <t>slrtype_stdyno</t>
+  </si>
+  <si>
+    <t>Population_stdyno</t>
+  </si>
+  <si>
+    <t>LIVEHTA Automation - Test_NonOncology_Automation_1_stdyno</t>
+  </si>
+  <si>
+    <t>Clinical_stdyno</t>
   </si>
 </sst>
 </file>
@@ -483,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC4BC85-93C4-414B-BB49-484C6267FF39}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,14 +508,16 @@
     <col min="4" max="4" width="69.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="60.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="80.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.77734375" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="80.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,23 +536,29 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -558,94 +578,100 @@
         <v>28</v>
       </c>
       <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Testdata/Non_Oncology/DataFiles/LiveSLRPage/NonOnco_SLR_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/LiveSLRPage/NonOnco_SLR_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\LiveSLRPage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDF8933-CDEF-4147-9721-F378574A51CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21AD34C-9A63-49ED-8D2E-EEC88F943D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{EBA6B7B5-4164-47B4-905D-E5F060CAEA54}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>Files_to_upload</t>
-  </si>
-  <si>
-    <t>LIVEHTA Automation - Test_NonOncology_Automation_1 - 3/6/2023</t>
   </si>
   <si>
     <t>File_with_ValidData.xlsx</t>
@@ -497,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC4BC85-93C4-414B-BB49-484C6267FF39}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -546,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
@@ -563,22 +560,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -587,7 +584,7 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
